--- a/src/test/java/utility/TestData.xlsx
+++ b/src/test/java/utility/TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,17 +20,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ZipCode1</t>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -57,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,23 +392,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>43215</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>